--- a/doc/BOM.xlsx
+++ b/doc/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\School\PROJ\2230_TubePitotDeporte\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85E30A2-AF2E-44B1-A589-817DE454C439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FBA0C8-2A8C-4535-8BC4-94050BD0D2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{0F7AA18C-43CE-4E56-AC8C-CFD91262AD32}"/>
   </bookViews>
@@ -1071,10 +1071,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:R52"/>
+  <dimension ref="B2:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3343,6 +3343,12 @@
         <v>10</v>
       </c>
     </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="Q54">
+        <f>SUM(Q2:Q52)</f>
+        <v>125.50753999999995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="37" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
